--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F9A18-7A44-41CC-9A01-662ABB87F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BD994-C671-405E-86C5-A8BD49DBD416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -430,55 +430,55 @@
                   <c:v>21691876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29443321</c:v>
+                  <c:v>28943321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31343887.370549999</c:v>
+                  <c:v>30739254.068050001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33244453.741099998</c:v>
+                  <c:v>32535187.136100002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39135370.944022916</c:v>
+                  <c:v>38300422.296616919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49024879.181577504</c:v>
+                  <c:v>47978939.010972016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63384266.293861553</c:v>
+                  <c:v>62031970.247285716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72315109.414666653</c:v>
+                  <c:v>70772274.855128273</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>86799825.830424383</c:v>
+                  <c:v>84947961.508610457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102857793.6090529</c:v>
+                  <c:v>100663334.38770339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137006581.08725846</c:v>
+                  <c:v>131063661.37278982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>162352798.58840129</c:v>
+                  <c:v>155310438.72675595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183978191.36037633</c:v>
+                  <c:v>175997789.16515985</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>205098887.72854754</c:v>
+                  <c:v>196202335.3613202</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>225157558.94839948</c:v>
+                  <c:v>219314970.46688369</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>254765777.95011401</c:v>
+                  <c:v>248154889.08327889</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279503534.98907006</c:v>
+                  <c:v>272250728.81326526</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>300047044.8107667</c:v>
+                  <c:v>292261157.38104022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2138,11 +2138,11 @@
         <v>1860</v>
       </c>
       <c r="B9" s="1">
-        <v>29443321</v>
+        <v>28943321</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>0.35734322840495675</v>
+        <v>0.33429312430146657</v>
       </c>
       <c r="D9" s="1">
         <v>31443321</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B10" s="1">
         <f>(B9+B11)/2</f>
-        <v>31343887.370549999</v>
+        <v>30739254.068050001</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1">
@@ -2167,10 +2167,10 @@
       </c>
       <c r="B11" s="1">
         <f>B9*(1+C11)</f>
-        <v>33244453.741099998</v>
+        <v>32535187.136100002</v>
       </c>
       <c r="C11" s="4">
-        <v>0.12909999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="D11" s="1">
         <v>50189209</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B12" s="1">
         <f>B11*(1+C12)</f>
-        <v>39135370.944022916</v>
+        <v>38300422.296616919</v>
       </c>
       <c r="C12" s="4">
         <v>0.1772</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ref="B13:B25" si="1">B12*(1+C13)</f>
-        <v>49024879.181577504</v>
+        <v>47978939.010972016</v>
       </c>
       <c r="C13" s="4">
         <v>0.25269999999999998</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>63384266.293861553</v>
+        <v>62031970.247285716</v>
       </c>
       <c r="C14" s="4">
         <v>0.29289999999999999</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>72315109.414666653</v>
+        <v>70772274.855128273</v>
       </c>
       <c r="C15" s="4">
         <v>0.1409</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>86799825.830424383</v>
+        <v>84947961.508610457</v>
       </c>
       <c r="C16" s="4">
         <v>0.20030000000000001</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>102857793.6090529</v>
+        <v>100663334.38770339</v>
       </c>
       <c r="C17" s="4">
         <v>0.185</v>
@@ -2272,10 +2272,10 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>137006581.08725846</v>
+        <v>131063661.37278982</v>
       </c>
       <c r="C18" s="4">
-        <v>0.33200000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D18" s="1">
         <v>151325798</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>162352798.58840129</v>
+        <v>155310438.72675595</v>
       </c>
       <c r="C19" s="4">
         <v>0.185</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>183978191.36037633</v>
+        <v>175997789.16515985</v>
       </c>
       <c r="C20" s="4">
         <v>0.13320000000000001</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>205098887.72854754</v>
+        <v>196202335.3613202</v>
       </c>
       <c r="C21" s="4">
         <v>0.1148</v>
@@ -2332,10 +2332,10 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>225157558.94839948</v>
+        <v>219314970.46688369</v>
       </c>
       <c r="C22" s="4">
-        <v>9.7799999999999998E-2</v>
+        <v>0.1178</v>
       </c>
       <c r="D22" s="1">
         <v>248709873</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>254765777.95011401</v>
+        <v>248154889.08327889</v>
       </c>
       <c r="C23" s="4">
         <v>0.13150000000000001</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>279503534.98907006</v>
+        <v>272250728.81326526</v>
       </c>
       <c r="C24" s="4">
         <v>9.7100000000000006E-2</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>300047044.8107667</v>
+        <v>292261157.38104022</v>
       </c>
       <c r="C25" s="4">
         <v>7.3499999999999996E-2</v>

--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BD994-C671-405E-86C5-A8BD49DBD416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662DC95-3A2F-43B8-8665-5C28E3C657DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -448,37 +448,37 @@
                   <c:v>62031970.247285716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70772274.855128273</c:v>
+                  <c:v>69531635.450182557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84947961.508610457</c:v>
+                  <c:v>84849454.739857763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100663334.38770339</c:v>
+                  <c:v>100546603.86673145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131063661.37278982</c:v>
+                  <c:v>130911678.23448436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155310438.72675595</c:v>
+                  <c:v>155130338.70786399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>175997789.16515985</c:v>
+                  <c:v>175793699.82375148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196202335.3613202</c:v>
+                  <c:v>195974816.56351814</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>219314970.46688369</c:v>
+                  <c:v>219060649.95470056</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>248154889.08327889</c:v>
+                  <c:v>247867125.42374367</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>272250728.81326526</c:v>
+                  <c:v>271935023.30238914</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>292261157.38104022</c:v>
+                  <c:v>291922247.51511472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2227,10 +2227,10 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>70772274.855128273</v>
+        <v>69531635.450182557</v>
       </c>
       <c r="C15" s="4">
-        <v>0.1409</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="D15" s="1">
         <v>106021537</v>
@@ -2242,10 +2242,10 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>84947961.508610457</v>
+        <v>84849454.739857763</v>
       </c>
       <c r="C16" s="4">
-        <v>0.20030000000000001</v>
+        <v>0.2203</v>
       </c>
       <c r="D16" s="1">
         <v>123202624</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>100663334.38770339</v>
+        <v>100546603.86673145</v>
       </c>
       <c r="C17" s="4">
         <v>0.185</v>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>131063661.37278982</v>
+        <v>130911678.23448436</v>
       </c>
       <c r="C18" s="4">
         <v>0.30199999999999999</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>155310438.72675595</v>
+        <v>155130338.70786399</v>
       </c>
       <c r="C19" s="4">
         <v>0.185</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>175997789.16515985</v>
+        <v>175793699.82375148</v>
       </c>
       <c r="C20" s="4">
         <v>0.13320000000000001</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>196202335.3613202</v>
+        <v>195974816.56351814</v>
       </c>
       <c r="C21" s="4">
         <v>0.1148</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>219314970.46688369</v>
+        <v>219060649.95470056</v>
       </c>
       <c r="C22" s="4">
         <v>0.1178</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>248154889.08327889</v>
+        <v>247867125.42374367</v>
       </c>
       <c r="C23" s="4">
         <v>0.13150000000000001</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>272250728.81326526</v>
+        <v>271935023.30238914</v>
       </c>
       <c r="C24" s="4">
         <v>9.7100000000000006E-2</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>292261157.38104022</v>
+        <v>291922247.51511472</v>
       </c>
       <c r="C25" s="4">
         <v>7.3499999999999996E-2</v>

--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662DC95-3A2F-43B8-8665-5C28E3C657DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C966CEB-F926-4323-99CC-298CD84261D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="united states" sheetId="22" r:id="rId1"/>
     <sheet name="new york" sheetId="23" r:id="rId2"/>
     <sheet name="philippines" sheetId="20" r:id="rId3"/>
+    <sheet name="auralia" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="42">
   <si>
     <t>Total</t>
   </si>
@@ -126,6 +127,45 @@
   <si>
     <t>TTL Population</t>
   </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>New Utrecht</t>
+  </si>
+  <si>
+    <t>Witwatersrand</t>
+  </si>
+  <si>
+    <t>Auralia</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Half-Breed</t>
+  </si>
+  <si>
+    <t>Uysburg</t>
+  </si>
+  <si>
+    <t>Zuid-Nassau</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Laurent Marc</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +221,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -196,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2004,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15A268-81B3-4BC3-AB86-45DD879516A6}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3599,4 +3640,530 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A17183-BA5D-4D17-B1AF-60B3930E249B}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B4" si="0">C3/C$6</f>
+        <v>0.22258989778503402</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C10+C17+C26+C33+C40+C49</f>
+        <v>6484279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12382829088556588</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C11+SUM(C18:C20)+C27+C34+SUM(C41:C42)+C44+C50+C52</f>
+        <v>3607249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <f>C5/C$6</f>
+        <v>0.65358181132940008</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C12+C21+C28+C35+C43+C51</f>
+        <v>19039529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(C3:C5)</f>
+        <v>29131057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10*C$13</f>
+        <v>1515904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C12" si="1">B11*C$13</f>
+        <v>229572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>1898524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3644000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17*C$22</f>
+        <v>3144674.9999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C21" si="2">B18*C$22</f>
+        <v>464864.99999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>309910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>355485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>4830950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9115000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26*C$29</f>
+        <v>555555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:C28" si="3">B27*C$29</f>
+        <v>129870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
+        <v>1719575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2405000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="C33" s="1">
+        <f>B33*C$36</f>
+        <v>387408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:C35" si="4">B34*C$36</f>
+        <v>72639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="4"/>
+        <v>2998953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3459000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <f>B40*C$45</f>
+        <v>559393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.122</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C44" si="5">B41*C$45</f>
+        <v>662582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="5"/>
+        <v>494221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="5"/>
+        <v>3655063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="5"/>
+        <v>124913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5431000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <f>B49*C$53</f>
+        <v>321344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C52" si="6">B50*C$53</f>
+        <v>592478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="6"/>
+        <v>3936464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="6"/>
+        <v>170714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5021000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C966CEB-F926-4323-99CC-298CD84261D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000D9B3-41E9-448F-BCDD-FF504A04FE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
   <si>
     <t>Total</t>
   </si>
@@ -155,16 +155,19 @@
     <t>Uysburg</t>
   </si>
   <si>
-    <t>Zuid-Nassau</t>
-  </si>
-  <si>
-    <t>Natal</t>
-  </si>
-  <si>
     <t>Asian</t>
   </si>
   <si>
     <t>Laurent Marc</t>
+  </si>
+  <si>
+    <t>South Nassau</t>
+  </si>
+  <si>
+    <t>New Delft</t>
+  </si>
+  <si>
+    <t>Colored</t>
   </si>
 </sst>
 </file>
@@ -233,10 +236,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2720,11 +2723,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -2958,11 +2961,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -3072,11 +3075,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
@@ -3183,11 +3186,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
@@ -3294,11 +3297,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
@@ -3416,11 +3419,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
@@ -3526,11 +3529,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
@@ -3577,11 +3580,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
@@ -3646,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A17183-BA5D-4D17-B1AF-60B3930E249B}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B4" si="0">C3/C$6</f>
-        <v>0.22258989778503402</v>
+        <v>0.24705714057299183</v>
       </c>
       <c r="C3" s="1">
         <f>C10+C17+C26+C33+C40+C49</f>
-        <v>6484279</v>
+        <v>5985965</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3690,11 +3693,11 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>0.12382829088556588</v>
+        <v>0.11665123272782518</v>
       </c>
       <c r="C4" s="1">
         <f>C11+SUM(C18:C20)+C27+C34+SUM(C41:C42)+C44+C50+C52</f>
-        <v>3607249</v>
+        <v>2826351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3703,23 +3706,24 @@
       </c>
       <c r="B5" s="4">
         <f>C5/C$6</f>
-        <v>0.65358181132940008</v>
+        <v>0.63629162669918293</v>
       </c>
       <c r="C5" s="1">
         <f>C12+C21+C28+C35+C43+C51</f>
-        <v>19039529</v>
+        <v>15416755</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
+        <f>SUM(B3:B5)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
-        <v>29131057</v>
+        <v>24229071</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3781,7 +3785,7 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -3821,11 +3825,11 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:C21" si="2">B18*C$22</f>
-        <v>464864.99999999994</v>
+        <v>556015</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3833,11 +3837,11 @@
         <v>36</v>
       </c>
       <c r="B19" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
-        <v>309910</v>
+        <v>674510</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3857,19 +3861,20 @@
         <v>31</v>
       </c>
       <c r="B21" s="4">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="2"/>
-        <v>4830950</v>
+        <v>4375200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="12">
-        <v>1</v>
+      <c r="B22" s="11">
+        <f>SUM(B17:B21)</f>
+        <v>0.999</v>
       </c>
       <c r="C22" s="1">
         <v>9115000</v>
@@ -3931,7 +3936,7 @@
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>1</v>
       </c>
       <c r="C29" s="1">
@@ -3940,7 +3945,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3994,7 +3999,7 @@
       <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>1</v>
       </c>
       <c r="C36" s="1">
@@ -4003,7 +4008,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4026,31 +4031,31 @@
       </c>
       <c r="C40" s="1">
         <f>B40*C$45</f>
-        <v>559393</v>
+        <v>61079</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4">
-        <v>0.122</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ref="C41:C44" si="5">B41*C$45</f>
-        <v>662582</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4">
-        <v>9.0999999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="5"/>
-        <v>494221</v>
+        <v>24313</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4058,11 +4063,11 @@
         <v>31</v>
       </c>
       <c r="B43" s="4">
-        <v>0.67300000000000004</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="5"/>
-        <v>3655063</v>
+        <v>488039</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4074,23 +4079,24 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="5"/>
-        <v>124913</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="12">
-        <v>1</v>
+      <c r="B45" s="11">
+        <f>SUM(B40:B44)</f>
+        <v>1.002</v>
       </c>
       <c r="C45" s="1">
-        <v>5431000</v>
+        <v>593000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4118,7 +4124,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4">
         <v>0.11799999999999999</v>
@@ -4156,7 +4162,7 @@
       <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>1</v>
       </c>
       <c r="C53" s="1">

--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000D9B3-41E9-448F-BCDD-FF504A04FE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA00B2-5902-445E-8F50-B885BC8B1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
   <si>
     <t>Total</t>
   </si>
@@ -3647,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A17183-BA5D-4D17-B1AF-60B3930E249B}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B4" si="0">C3/C$6</f>
-        <v>0.24705714057299183</v>
+        <v>0.25322157727221634</v>
       </c>
       <c r="C3" s="1">
         <f>C10+C17+C26+C33+C40+C49</f>
-        <v>5985965</v>
+        <v>6136595</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>0.11665123272782518</v>
+        <v>0.12304987535740972</v>
       </c>
       <c r="C4" s="1">
-        <f>C11+SUM(C18:C20)+C27+C34+SUM(C41:C42)+C44+C50+C52</f>
-        <v>2826351</v>
+        <f>C11+SUM(C18:C20)+C27+C34+SUM(C41:C42)+C44+SUM(C50:C51)+C53</f>
+        <v>2982002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="B5" s="4">
         <f>C5/C$6</f>
-        <v>0.63629162669918293</v>
+        <v>0.62372854737037398</v>
       </c>
       <c r="C5" s="1">
-        <f>C12+C21+C28+C35+C43+C51</f>
-        <v>15416755</v>
+        <f>C12+C21+C28+C35+C43+C52</f>
+        <v>15115495</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
-        <v>24229071</v>
+        <v>24234092</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4115,11 +4115,11 @@
         <v>30</v>
       </c>
       <c r="B49" s="4">
-        <v>6.4000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C49" s="1">
-        <f>B49*C$53</f>
-        <v>321344</v>
+        <f>B49*C$54</f>
+        <v>471974</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4130,42 +4130,55 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:C52" si="6">B50*C$53</f>
+        <f t="shared" ref="C50:C53" si="6">B50*C$54</f>
         <v>592478</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4">
-        <v>0.78400000000000003</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="6"/>
-        <v>3936464</v>
+        <v>155651</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B52" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="6"/>
-        <v>170714</v>
+        <v>3635204</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="6"/>
+        <v>170714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="11">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B54" s="11">
+        <f>SUM(B49:B53)</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C54" s="1">
         <v>5021000</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/population.xlsx
+++ b/obsidian-notes/spreadsheets/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA00B2-5902-445E-8F50-B885BC8B1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A34F49-B0FD-4BA4-BAA3-7EE32BEAB0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B4" si="0">C3/C$6</f>
-        <v>0.25322157727221634</v>
+        <v>0.25529345188588043</v>
       </c>
       <c r="C3" s="1">
         <f>C10+C17+C26+C33+C40+C49</f>
-        <v>6136595</v>
+        <v>6186805</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="B5" s="4">
         <f>C5/C$6</f>
-        <v>0.62372854737037398</v>
+        <v>0.62165667275670988</v>
       </c>
       <c r="C5" s="1">
         <f>C12+C21+C28+C35+C43+C52</f>
-        <v>15115495</v>
+        <v>15065285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4115,11 +4115,11 @@
         <v>30</v>
       </c>
       <c r="B49" s="4">
-        <v>9.4E-2</v>
+        <v>0.104</v>
       </c>
       <c r="C49" s="1">
         <f>B49*C$54</f>
-        <v>471974</v>
+        <v>522184</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4151,11 +4151,11 @@
         <v>31</v>
       </c>
       <c r="B52" s="4">
-        <v>0.72399999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="6"/>
-        <v>3635204</v>
+        <v>3584994</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
